--- a/Trabalho 1 - Similaridade em Grafos/Jaccard.xlsx
+++ b/Trabalho 1 - Similaridade em Grafos/Jaccard.xlsx
@@ -22,7 +22,7 @@
     <t>ID Aeroporto 2</t>
   </si>
   <si>
-    <t>Similaridade de Jaccard</t>
+    <t>Similaridade por Cosseno</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
         <v>2524</v>
       </c>
       <c r="D4">
-        <v>0.0303030303030303</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,7 +450,7 @@
         <v>2526</v>
       </c>
       <c r="D5">
-        <v>0.01351351351351351</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -534,7 +534,7 @@
         <v>2538</v>
       </c>
       <c r="D11">
-        <v>0.02797202797202797</v>
+        <v>0.8306218047805676</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -576,7 +576,7 @@
         <v>2544</v>
       </c>
       <c r="D14">
-        <v>0.08333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -604,7 +604,7 @@
         <v>2548</v>
       </c>
       <c r="D16">
-        <v>0.025</v>
+        <v>0.9945054529214061</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,7 +618,7 @@
         <v>2550</v>
       </c>
       <c r="D17">
-        <v>0.1111111111111111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -660,7 +660,7 @@
         <v>2556</v>
       </c>
       <c r="D20">
-        <v>0.0392156862745098</v>
+        <v>0.6139406135149205</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -744,7 +744,7 @@
         <v>2569</v>
       </c>
       <c r="D26">
-        <v>0.03571428571428571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -800,7 +800,7 @@
         <v>2577</v>
       </c>
       <c r="D30">
-        <v>0.1052631578947368</v>
+        <v>0.9486832980505138</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -870,7 +870,7 @@
         <v>2587</v>
       </c>
       <c r="D35">
-        <v>0.06451612903225806</v>
+        <v>0.9778024140774094</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -982,7 +982,7 @@
         <v>2604</v>
       </c>
       <c r="D43">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1010,7 +1010,7 @@
         <v>2609</v>
       </c>
       <c r="D45">
-        <v>0.08571428571428572</v>
+        <v>0.9460998335825321</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,7 +1024,7 @@
         <v>2612</v>
       </c>
       <c r="D46">
-        <v>0.03053435114503817</v>
+        <v>0.9491594619721061</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1052,7 +1052,7 @@
         <v>2616</v>
       </c>
       <c r="D48">
-        <v>0.02325581395348837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,7 +1066,7 @@
         <v>2619</v>
       </c>
       <c r="D49">
-        <v>0.01694915254237288</v>
+        <v>0.593648948570223</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1094,7 +1094,7 @@
         <v>2623</v>
       </c>
       <c r="D51">
-        <v>0.03846153846153846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1136,7 +1136,7 @@
         <v>2629</v>
       </c>
       <c r="D54">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,7 +1150,7 @@
         <v>2631</v>
       </c>
       <c r="D55">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1192,7 +1192,7 @@
         <v>2638</v>
       </c>
       <c r="D58">
-        <v>0.02564102564102564</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1220,7 +1220,7 @@
         <v>4209</v>
       </c>
       <c r="D60">
-        <v>0.07142857142857142</v>
+        <v>0.9523873417766002</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1248,7 +1248,7 @@
         <v>6034</v>
       </c>
       <c r="D62">
-        <v>0.1052631578947368</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,7 +1262,7 @@
         <v>6037</v>
       </c>
       <c r="D63">
-        <v>0.07692307692307693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,7 +1276,7 @@
         <v>6039</v>
       </c>
       <c r="D64">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1472,7 +1472,7 @@
         <v>7384</v>
       </c>
       <c r="D78">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,7 +1486,7 @@
         <v>7395</v>
       </c>
       <c r="D79">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1514,7 +1514,7 @@
         <v>7399</v>
       </c>
       <c r="D81">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1598,7 +1598,7 @@
         <v>8238</v>
       </c>
       <c r="D87">
-        <v>0.08333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,7 +1612,7 @@
         <v>8240</v>
       </c>
       <c r="D88">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4">

--- a/Trabalho 1 - Similaridade em Grafos/Jaccard.xlsx
+++ b/Trabalho 1 - Similaridade em Grafos/Jaccard.xlsx
@@ -22,7 +22,7 @@
     <t>ID Aeroporto 2</t>
   </si>
   <si>
-    <t>Similaridade por Cosseno</t>
+    <t>Similaridade de Jaccard</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
         <v>2524</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.0303030303030303</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,7 +450,7 @@
         <v>2526</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.01351351351351351</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -534,7 +534,7 @@
         <v>2538</v>
       </c>
       <c r="D11">
-        <v>0.8306218047805676</v>
+        <v>0.02797202797202797</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -576,7 +576,7 @@
         <v>2544</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -604,7 +604,7 @@
         <v>2548</v>
       </c>
       <c r="D16">
-        <v>0.9945054529214061</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,7 +618,7 @@
         <v>2550</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -660,7 +660,7 @@
         <v>2556</v>
       </c>
       <c r="D20">
-        <v>0.6139406135149205</v>
+        <v>0.0392156862745098</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -744,7 +744,7 @@
         <v>2569</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -800,7 +800,7 @@
         <v>2577</v>
       </c>
       <c r="D30">
-        <v>0.9486832980505138</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -870,7 +870,7 @@
         <v>2587</v>
       </c>
       <c r="D35">
-        <v>0.9778024140774094</v>
+        <v>0.06451612903225806</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -982,7 +982,7 @@
         <v>2604</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1010,7 +1010,7 @@
         <v>2609</v>
       </c>
       <c r="D45">
-        <v>0.9460998335825321</v>
+        <v>0.08571428571428572</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,7 +1024,7 @@
         <v>2612</v>
       </c>
       <c r="D46">
-        <v>0.9491594619721061</v>
+        <v>0.03053435114503817</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1052,7 +1052,7 @@
         <v>2616</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,7 +1066,7 @@
         <v>2619</v>
       </c>
       <c r="D49">
-        <v>0.593648948570223</v>
+        <v>0.01694915254237288</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1094,7 +1094,7 @@
         <v>2623</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1136,7 +1136,7 @@
         <v>2629</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,7 +1150,7 @@
         <v>2631</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1192,7 +1192,7 @@
         <v>2638</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0.02564102564102564</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1220,7 +1220,7 @@
         <v>4209</v>
       </c>
       <c r="D60">
-        <v>0.9523873417766002</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1248,7 +1248,7 @@
         <v>6034</v>
       </c>
       <c r="D62">
-        <v>0.9999999999999998</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,7 +1262,7 @@
         <v>6037</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,7 +1276,7 @@
         <v>6039</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1472,7 +1472,7 @@
         <v>7384</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,7 +1486,7 @@
         <v>7395</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1514,7 +1514,7 @@
         <v>7399</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1598,7 +1598,7 @@
         <v>8238</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,7 +1612,7 @@
         <v>8240</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="89" spans="1:4">
